--- a/results-partial/HW_C001_120.xlsx
+++ b/results-partial/HW_C001_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27.83096748370949</v>
-      </c>
-      <c r="C2" t="n">
-        <v>29.25936016530186</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.18938216835389</v>
-      </c>
-      <c r="E2" t="n">
-        <v>29.01436878139758</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29.18938216835389</v>
-      </c>
-      <c r="G2" t="n">
-        <v>28.12151227322833</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28.84720169803776</v>
-      </c>
-      <c r="I2" t="n">
-        <v>28.63881772656523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.79020060783168</v>
+        <v>27.83096748370949</v>
       </c>
       <c r="C3" t="n">
-        <v>29.22416621404714</v>
+        <v>29.25936016530186</v>
       </c>
       <c r="D3" t="n">
-        <v>29.15364053387199</v>
+        <v>29.18938216835389</v>
       </c>
       <c r="E3" t="n">
-        <v>28.9550140225926</v>
+        <v>29.01436878139758</v>
       </c>
       <c r="F3" t="n">
-        <v>29.15364053387199</v>
+        <v>29.18938216835389</v>
       </c>
       <c r="G3" t="n">
-        <v>28.0811419423196</v>
+        <v>28.74406733719405</v>
       </c>
       <c r="H3" t="n">
-        <v>28.81483507752534</v>
+        <v>28.84720169803776</v>
       </c>
       <c r="I3" t="n">
-        <v>28.61546041318585</v>
+        <v>28.63881772656523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.8574254088211</v>
+        <v>27.79020060783168</v>
       </c>
       <c r="C4" t="n">
-        <v>29.27127236604962</v>
+        <v>29.22416621404714</v>
       </c>
       <c r="D4" t="n">
-        <v>29.20308118858226</v>
+        <v>29.15364053387199</v>
       </c>
       <c r="E4" t="n">
-        <v>29.01367645565525</v>
+        <v>28.9550140225926</v>
       </c>
       <c r="F4" t="n">
-        <v>29.20308118858226</v>
+        <v>29.15364053387199</v>
       </c>
       <c r="G4" t="n">
-        <v>28.15416313553431</v>
+        <v>28.74789513254629</v>
       </c>
       <c r="H4" t="n">
-        <v>28.84831240086282</v>
+        <v>28.81483507752534</v>
       </c>
       <c r="I4" t="n">
-        <v>28.62805109384744</v>
+        <v>28.61546041318585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.84740778959875</v>
+        <v>27.8574254088211</v>
       </c>
       <c r="C5" t="n">
-        <v>29.26471615375107</v>
+        <v>29.27127236604962</v>
       </c>
       <c r="D5" t="n">
-        <v>29.19774170748733</v>
+        <v>29.20308118858226</v>
       </c>
       <c r="E5" t="n">
-        <v>29.00248825783585</v>
+        <v>29.01367645565525</v>
       </c>
       <c r="F5" t="n">
-        <v>29.19776719205654</v>
+        <v>29.20308118858226</v>
       </c>
       <c r="G5" t="n">
-        <v>28.13837104990714</v>
+        <v>28.75992347637348</v>
       </c>
       <c r="H5" t="n">
-        <v>28.88794157735925</v>
+        <v>28.84831240086282</v>
       </c>
       <c r="I5" t="n">
-        <v>28.66115413686131</v>
+        <v>28.62805109384744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.84937074870759</v>
+        <v>27.84740778959875</v>
       </c>
       <c r="C6" t="n">
-        <v>29.24893002865843</v>
+        <v>29.26471615375107</v>
       </c>
       <c r="D6" t="n">
-        <v>29.18403030497451</v>
+        <v>29.19774170748733</v>
       </c>
       <c r="E6" t="n">
-        <v>29.00601713147072</v>
+        <v>29.00248825783585</v>
       </c>
       <c r="F6" t="n">
-        <v>29.18403030497451</v>
+        <v>29.19776719205654</v>
       </c>
       <c r="G6" t="n">
-        <v>28.14606221509166</v>
+        <v>28.74830547693137</v>
       </c>
       <c r="H6" t="n">
-        <v>28.85522678685512</v>
+        <v>28.88794157735925</v>
       </c>
       <c r="I6" t="n">
-        <v>28.65722900339584</v>
+        <v>28.66115413686131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.81816264608317</v>
+        <v>27.84937074870759</v>
       </c>
       <c r="C7" t="n">
-        <v>29.23216653849148</v>
+        <v>29.24893002865843</v>
       </c>
       <c r="D7" t="n">
-        <v>29.17413126922241</v>
+        <v>29.18403030497451</v>
       </c>
       <c r="E7" t="n">
-        <v>28.9885617218511</v>
+        <v>29.00601713147072</v>
       </c>
       <c r="F7" t="n">
-        <v>29.17413126922241</v>
+        <v>29.18403030497451</v>
       </c>
       <c r="G7" t="n">
-        <v>28.11478225526371</v>
+        <v>28.75948801410888</v>
       </c>
       <c r="H7" t="n">
-        <v>28.84828755242988</v>
+        <v>28.85522678685512</v>
       </c>
       <c r="I7" t="n">
-        <v>28.65235371332107</v>
+        <v>28.65722900339584</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.8390060300491</v>
+        <v>27.81816264608317</v>
       </c>
       <c r="C8" t="n">
-        <v>29.24446483422746</v>
+        <v>29.23216653849148</v>
       </c>
       <c r="D8" t="n">
-        <v>29.18113537568834</v>
+        <v>29.17413126922241</v>
       </c>
       <c r="E8" t="n">
-        <v>28.99512893038526</v>
+        <v>28.9885617218511</v>
       </c>
       <c r="F8" t="n">
-        <v>29.18120811702527</v>
+        <v>29.17413126922241</v>
       </c>
       <c r="G8" t="n">
-        <v>28.13255018556669</v>
+        <v>28.73935726567277</v>
       </c>
       <c r="H8" t="n">
-        <v>28.84712767239659</v>
+        <v>28.84828755242988</v>
       </c>
       <c r="I8" t="n">
-        <v>28.63272888327255</v>
+        <v>28.65235371332107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.82131605091118</v>
+        <v>27.8390060300491</v>
       </c>
       <c r="C9" t="n">
-        <v>29.25979411432074</v>
+        <v>29.24446483422746</v>
       </c>
       <c r="D9" t="n">
-        <v>29.20308788423493</v>
+        <v>29.18113537568834</v>
       </c>
       <c r="E9" t="n">
-        <v>28.98251490176143</v>
+        <v>28.99512893038526</v>
       </c>
       <c r="F9" t="n">
-        <v>29.20308679845272</v>
+        <v>29.18120811702527</v>
       </c>
       <c r="G9" t="n">
-        <v>28.10973186962392</v>
+        <v>28.77244029855967</v>
       </c>
       <c r="H9" t="n">
-        <v>28.84829255545864</v>
+        <v>28.84712767239659</v>
       </c>
       <c r="I9" t="n">
-        <v>28.62838875751631</v>
+        <v>28.63272888327255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.81742838227542</v>
+        <v>27.82131605091118</v>
       </c>
       <c r="C10" t="n">
-        <v>29.22536873410754</v>
+        <v>29.25979411432074</v>
       </c>
       <c r="D10" t="n">
-        <v>29.15140163181793</v>
+        <v>29.20308788423493</v>
       </c>
       <c r="E10" t="n">
-        <v>28.96430283819177</v>
+        <v>28.98251490176143</v>
       </c>
       <c r="F10" t="n">
-        <v>29.15140163181793</v>
+        <v>29.20308679845272</v>
       </c>
       <c r="G10" t="n">
-        <v>28.10808880821899</v>
+        <v>28.74533388252233</v>
       </c>
       <c r="H10" t="n">
-        <v>28.83940459846023</v>
+        <v>28.84829255545864</v>
       </c>
       <c r="I10" t="n">
-        <v>28.61969728906622</v>
+        <v>28.62838875751631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.81742838227542</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.22536873410754</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.15140163181793</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.96430283819177</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.15140163181793</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.74024047257587</v>
+      </c>
+      <c r="H11" t="n">
+        <v>28.83940459846023</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28.61969728906622</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>27.83695446924043</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>29.2372342650374</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>29.18697350044036</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>28.98935410706262</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>29.18697350044036</v>
       </c>
-      <c r="G11" t="n">
-        <v>28.13012564195937</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>28.77057312001983</v>
+      </c>
+      <c r="H12" t="n">
         <v>28.83634974466139</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>28.61668509584653</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.83082396172279</v>
-      </c>
-      <c r="C12" t="n">
-        <v>29.24674734139927</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.1824605564674</v>
-      </c>
-      <c r="E12" t="n">
-        <v>28.99114271482042</v>
-      </c>
-      <c r="F12" t="n">
-        <v>29.18247027047979</v>
-      </c>
-      <c r="G12" t="n">
-        <v>28.12365293767137</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28.8472979664047</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28.63505661128783</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.415923379676478</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.351636594744605</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.160318753097624</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.351646308756997</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2928289759485772</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.016474004681911</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.8042326495650407</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9572003078997324</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9717140256119086</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9711580525607622</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9711839509654369</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9711580525607622</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9700764973477385</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9679235585450667</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9681882932626941</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9570095743765989</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9714414122108351</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9708925551901911</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9707405390088971</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9708925551901911</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9698323670609991</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9677819816692154</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9679314890270398</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9576061446190812</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9716774869292102</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9713147494800487</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9713029682842036</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9713147494800487</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9700003166901429</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9681628560185912</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9680025505487142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9574344726880328</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9716953628829675</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9712400063390111</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9709706250273759</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9712401507449778</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9696669184732809</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9681912264028053</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9682057621256477</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9575465598091003</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9720223059439878</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9713337219688634</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9714135838315915</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9713337219688634</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9701118081492958</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9683555454003784</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.968553750990911</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9568396978121549</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9714038906585541</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9709223508213973</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9708684128797791</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9709223508213973</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9697205319620247</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9679193616467566</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9680484846648664</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9572188427232009</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9714104360144884</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9709891712090669</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9707376870065317</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9709895425613776</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9698591421418727</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9680853219201807</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9681724168017872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9570190556704303</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9715422919599982</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9711612255711274</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9706784969441307</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9711612003900462</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9698142860144113</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9677473068182795</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9678397830026731</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9571529932049485</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9712943117885624</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9708686057593703</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9707541476533167</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9708686057593703</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.969542178154352</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9677132798844925</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9677240445315043</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9572027664122821</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9716345554766193</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9710244378122874</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9710477564593848</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9710244378122874</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9702449350319817</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9679362016801805</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9680397668203146</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.81360772831505</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26.80859143713226</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.52747917860153</v>
-      </c>
-      <c r="E2" t="n">
-        <v>26.90001638003902</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26.52747917860153</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.75679200657025</v>
-      </c>
-      <c r="H2" t="n">
-        <v>26.1509069501992</v>
-      </c>
-      <c r="I2" t="n">
-        <v>26.64238303319073</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.85848040293938</v>
+        <v>19.81360772831505</v>
       </c>
       <c r="C3" t="n">
-        <v>26.84249943115434</v>
+        <v>26.80859143713226</v>
       </c>
       <c r="D3" t="n">
-        <v>26.58267882962825</v>
+        <v>26.52747917860153</v>
       </c>
       <c r="E3" t="n">
-        <v>26.97334521579736</v>
+        <v>26.90001638003902</v>
       </c>
       <c r="F3" t="n">
-        <v>26.58270614839374</v>
+        <v>26.52747917860153</v>
       </c>
       <c r="G3" t="n">
-        <v>20.81722064170393</v>
+        <v>23.10964926593289</v>
       </c>
       <c r="H3" t="n">
-        <v>26.1855511587085</v>
+        <v>26.1509069501992</v>
       </c>
       <c r="I3" t="n">
-        <v>26.64033605733973</v>
+        <v>26.64238303319073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.82127581465778</v>
+        <v>19.85848040293938</v>
       </c>
       <c r="C4" t="n">
-        <v>26.79365573653223</v>
+        <v>26.84249943115434</v>
       </c>
       <c r="D4" t="n">
-        <v>26.53842912534271</v>
+        <v>26.58267882962825</v>
       </c>
       <c r="E4" t="n">
-        <v>26.91353477781244</v>
+        <v>26.97334521579736</v>
       </c>
       <c r="F4" t="n">
-        <v>26.53841619235288</v>
+        <v>26.58270614839374</v>
       </c>
       <c r="G4" t="n">
-        <v>20.76896424996278</v>
+        <v>23.13216442796327</v>
       </c>
       <c r="H4" t="n">
-        <v>26.14690495315903</v>
+        <v>26.1855511587085</v>
       </c>
       <c r="I4" t="n">
-        <v>26.62104325562474</v>
+        <v>26.64033605733973</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.85354781174944</v>
+        <v>19.82127581465778</v>
       </c>
       <c r="C5" t="n">
-        <v>26.85680691211786</v>
+        <v>26.79365573653223</v>
       </c>
       <c r="D5" t="n">
-        <v>26.61574806817241</v>
+        <v>26.53842912534271</v>
       </c>
       <c r="E5" t="n">
-        <v>26.98969928241961</v>
+        <v>26.91353477781244</v>
       </c>
       <c r="F5" t="n">
-        <v>26.61574806817241</v>
+        <v>26.53841619235288</v>
       </c>
       <c r="G5" t="n">
-        <v>20.7978541641105</v>
+        <v>23.11714153618182</v>
       </c>
       <c r="H5" t="n">
-        <v>26.19741383258339</v>
+        <v>26.14690495315903</v>
       </c>
       <c r="I5" t="n">
-        <v>26.64844695054495</v>
+        <v>26.62104325562474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.82843320122187</v>
+        <v>19.85354781174944</v>
       </c>
       <c r="C6" t="n">
-        <v>26.8029423423758</v>
+        <v>26.85680691211786</v>
       </c>
       <c r="D6" t="n">
-        <v>26.54421334475681</v>
+        <v>26.61574806817241</v>
       </c>
       <c r="E6" t="n">
-        <v>26.92951668714253</v>
+        <v>26.98969928241961</v>
       </c>
       <c r="F6" t="n">
-        <v>26.54413319132486</v>
+        <v>26.61574806817241</v>
       </c>
       <c r="G6" t="n">
-        <v>20.77305873267308</v>
+        <v>23.1282439199158</v>
       </c>
       <c r="H6" t="n">
-        <v>26.14554304271921</v>
+        <v>26.19741383258339</v>
       </c>
       <c r="I6" t="n">
-        <v>26.6279935058784</v>
+        <v>26.64844695054495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.83117714871628</v>
+        <v>19.82843320122187</v>
       </c>
       <c r="C7" t="n">
-        <v>26.81474184201596</v>
+        <v>26.8029423423758</v>
       </c>
       <c r="D7" t="n">
-        <v>26.54443330828644</v>
+        <v>26.54421334475681</v>
       </c>
       <c r="E7" t="n">
-        <v>26.89931971107512</v>
+        <v>26.92951668714253</v>
       </c>
       <c r="F7" t="n">
-        <v>26.54443330828644</v>
+        <v>26.54413319132486</v>
       </c>
       <c r="G7" t="n">
-        <v>20.77625523278195</v>
+        <v>23.10322454389553</v>
       </c>
       <c r="H7" t="n">
-        <v>26.14261871513665</v>
+        <v>26.14554304271921</v>
       </c>
       <c r="I7" t="n">
-        <v>26.61100157228396</v>
+        <v>26.6279935058784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.8267338368039</v>
+        <v>19.83117714871628</v>
       </c>
       <c r="C8" t="n">
-        <v>26.81415330263138</v>
+        <v>26.81474184201596</v>
       </c>
       <c r="D8" t="n">
-        <v>26.57597272092847</v>
+        <v>26.54443330828644</v>
       </c>
       <c r="E8" t="n">
-        <v>26.91303426698682</v>
+        <v>26.89931971107512</v>
       </c>
       <c r="F8" t="n">
-        <v>26.57597272092847</v>
+        <v>26.54443330828644</v>
       </c>
       <c r="G8" t="n">
-        <v>20.7694982035242</v>
+        <v>23.11898621851698</v>
       </c>
       <c r="H8" t="n">
-        <v>26.13777282359939</v>
+        <v>26.14261871513665</v>
       </c>
       <c r="I8" t="n">
-        <v>26.62844531476676</v>
+        <v>26.61100157228396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.81918576695703</v>
+        <v>19.8267338368039</v>
       </c>
       <c r="C9" t="n">
-        <v>26.79688472972846</v>
+        <v>26.81415330263138</v>
       </c>
       <c r="D9" t="n">
-        <v>26.55151439090396</v>
+        <v>26.57597272092847</v>
       </c>
       <c r="E9" t="n">
-        <v>26.92439957825553</v>
+        <v>26.91303426698682</v>
       </c>
       <c r="F9" t="n">
-        <v>26.55151439090396</v>
+        <v>26.57597272092847</v>
       </c>
       <c r="G9" t="n">
-        <v>20.76240501449021</v>
+        <v>23.10085514914051</v>
       </c>
       <c r="H9" t="n">
-        <v>26.14208799493854</v>
+        <v>26.13777282359939</v>
       </c>
       <c r="I9" t="n">
-        <v>26.62386528794762</v>
+        <v>26.62844531476676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.856709838037</v>
+        <v>19.81918576695703</v>
       </c>
       <c r="C10" t="n">
-        <v>26.85211255203251</v>
+        <v>26.79688472972846</v>
       </c>
       <c r="D10" t="n">
-        <v>26.59475343115131</v>
+        <v>26.55151439090396</v>
       </c>
       <c r="E10" t="n">
-        <v>26.96955441077921</v>
+        <v>26.92439957825553</v>
       </c>
       <c r="F10" t="n">
-        <v>26.59475343115131</v>
+        <v>26.55151439090396</v>
       </c>
       <c r="G10" t="n">
-        <v>20.80771385337357</v>
+        <v>23.13580426068304</v>
       </c>
       <c r="H10" t="n">
-        <v>26.21422641470159</v>
+        <v>26.14208799493854</v>
       </c>
       <c r="I10" t="n">
-        <v>26.66638895635762</v>
+        <v>26.62386528794762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.856709838037</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.85211255203251</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.59475343115131</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26.96955441077921</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26.59475343115131</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23.13975951178151</v>
+      </c>
+      <c r="H11" t="n">
+        <v>26.21422641470159</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26.66638895635762</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.83789688697364</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>26.80631789096114</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>26.55648719684413</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>26.9363040789634</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>26.55648719684413</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.78490731601766</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>23.12284799381932</v>
+      </c>
+      <c r="H12" t="n">
         <v>26.13966739550372</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>26.61617496473669</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.83470484363714</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26.8188706176682</v>
-      </c>
-      <c r="D12" t="n">
-        <v>26.5631709594616</v>
-      </c>
-      <c r="E12" t="n">
-        <v>26.9348724389271</v>
-      </c>
-      <c r="F12" t="n">
-        <v>26.56316438269597</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.78146694152081</v>
-      </c>
-      <c r="H12" t="n">
-        <v>26.16026932812492</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26.63260788986712</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.984165774031062</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.728466115824467</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.100167595289964</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.728459539058836</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9467620978836742</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.325564484487785</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.797903046229983</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8342947271115542</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9573520672722082</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.954890657764501</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9577086416762686</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.954890657764501</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9139425253241394</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9500130775117911</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9571130102859492</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8353164145660544</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9573745296989283</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9552686643860309</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9581854630263094</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9552696186606837</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9141964064470093</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9502543313930768</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9566798600610781</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8342898992815651</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9571465807648836</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9547402074805389</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9572315406925433</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9547401601001847</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9136256835891862</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9498837485265443</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9564123371732801</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8351869488405469</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9579355562608948</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9553101979236256</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9582090321899384</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9553101979236256</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9142385594305167</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9504738485947881</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9565976068498817</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8345837738215639</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9570245506078067</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9547526232064174</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9574274196902444</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9547515628212541</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9138654792266665</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9496991144371556</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9569233956717923</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8345243436728538</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9572162102077019</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9544167719223263</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9574637161537995</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9544167719223263</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9136017645975912</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9494266054823289</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9564053391607773</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8343856533839034</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9573204344759761</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9545626151809223</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9575897757953542</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9545626151809223</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.913414772005962</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9500332993181805</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9568957094967994</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8343704399971426</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9575101104335695</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9546050729192554</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9575084874697145</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9546050729192554</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9138418110899794</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9500516686866708</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9566037219211114</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8353433370355816</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9575850153615052</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9554306776153277</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9578253910045065</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9554306776153277</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9139297839684689</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9504968209900128</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9568517274030177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8349568453564225</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9572451858174522</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9551301572553541</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9579793575077157</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9551301572553541</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9140310737115366</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9497722203296786</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9565283667540915</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.961609172719</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23.49948823894876</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.16199371767041</v>
-      </c>
-      <c r="E2" t="n">
-        <v>23.39443177656597</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23.16199371767041</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16.99902858845832</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21.11189937134795</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20.03005128990158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.9713443928894</v>
+        <v>14.961609172719</v>
       </c>
       <c r="C3" t="n">
-        <v>23.53316469300123</v>
+        <v>23.49948823894876</v>
       </c>
       <c r="D3" t="n">
-        <v>23.19650303772979</v>
+        <v>23.16199371767041</v>
       </c>
       <c r="E3" t="n">
-        <v>23.45028656026827</v>
+        <v>23.39443177656597</v>
       </c>
       <c r="F3" t="n">
-        <v>23.19650303772979</v>
+        <v>23.16199371767041</v>
       </c>
       <c r="G3" t="n">
-        <v>17.01551260278666</v>
+        <v>18.49902392738525</v>
       </c>
       <c r="H3" t="n">
-        <v>21.15951761530154</v>
+        <v>21.11189937134795</v>
       </c>
       <c r="I3" t="n">
-        <v>20.09222631816006</v>
+        <v>20.03005128990158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.97235008889229</v>
+        <v>14.9713443928894</v>
       </c>
       <c r="C4" t="n">
-        <v>23.52347068997115</v>
+        <v>23.53316469300123</v>
       </c>
       <c r="D4" t="n">
-        <v>23.18468827804355</v>
+        <v>23.19650303772979</v>
       </c>
       <c r="E4" t="n">
-        <v>23.44636052465907</v>
+        <v>23.45028656026827</v>
       </c>
       <c r="F4" t="n">
-        <v>23.18468827804355</v>
+        <v>23.19650303772979</v>
       </c>
       <c r="G4" t="n">
-        <v>17.00938721584415</v>
+        <v>18.54921346095602</v>
       </c>
       <c r="H4" t="n">
-        <v>21.1558129446036</v>
+        <v>21.15951761530154</v>
       </c>
       <c r="I4" t="n">
-        <v>20.06817932923308</v>
+        <v>20.09222631816006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9919493135604</v>
+        <v>14.97235008889229</v>
       </c>
       <c r="C5" t="n">
-        <v>23.55204498342373</v>
+        <v>23.52347068997115</v>
       </c>
       <c r="D5" t="n">
-        <v>23.23740510508324</v>
+        <v>23.18468827804355</v>
       </c>
       <c r="E5" t="n">
-        <v>23.4860583870344</v>
+        <v>23.44636052465907</v>
       </c>
       <c r="F5" t="n">
-        <v>23.23740510508324</v>
+        <v>23.18468827804355</v>
       </c>
       <c r="G5" t="n">
-        <v>17.03653723601084</v>
+        <v>18.5397123493862</v>
       </c>
       <c r="H5" t="n">
-        <v>21.19527039322807</v>
+        <v>21.1558129446036</v>
       </c>
       <c r="I5" t="n">
-        <v>20.10784013544538</v>
+        <v>20.06817932923308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.96577627950721</v>
+        <v>14.9919493135604</v>
       </c>
       <c r="C6" t="n">
-        <v>23.52850781864574</v>
+        <v>23.55204498342373</v>
       </c>
       <c r="D6" t="n">
-        <v>23.16304961620738</v>
+        <v>23.23740510508324</v>
       </c>
       <c r="E6" t="n">
-        <v>23.43100933044712</v>
+        <v>23.4860583870344</v>
       </c>
       <c r="F6" t="n">
-        <v>23.16304961620738</v>
+        <v>23.23740510508324</v>
       </c>
       <c r="G6" t="n">
-        <v>17.00475306973375</v>
+        <v>18.56747518159369</v>
       </c>
       <c r="H6" t="n">
-        <v>21.17988395771821</v>
+        <v>21.19527039322807</v>
       </c>
       <c r="I6" t="n">
-        <v>20.09419444099479</v>
+        <v>20.10784013544538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.98428047187979</v>
+        <v>14.96577627950721</v>
       </c>
       <c r="C7" t="n">
-        <v>23.5578127770023</v>
+        <v>23.52850781864574</v>
       </c>
       <c r="D7" t="n">
-        <v>23.21265296050893</v>
+        <v>23.16304961620738</v>
       </c>
       <c r="E7" t="n">
-        <v>23.47775285453798</v>
+        <v>23.43100933044712</v>
       </c>
       <c r="F7" t="n">
-        <v>23.21265906505167</v>
+        <v>23.16304961620738</v>
       </c>
       <c r="G7" t="n">
-        <v>17.02319519081821</v>
+        <v>18.53670723517396</v>
       </c>
       <c r="H7" t="n">
-        <v>21.17596760470006</v>
+        <v>21.17988395771821</v>
       </c>
       <c r="I7" t="n">
-        <v>20.08631822480402</v>
+        <v>20.09419444099479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.97449471337259</v>
+        <v>14.98428047187979</v>
       </c>
       <c r="C8" t="n">
-        <v>23.53123993638446</v>
+        <v>23.5578127770023</v>
       </c>
       <c r="D8" t="n">
-        <v>23.17156738676924</v>
+        <v>23.21265296050893</v>
       </c>
       <c r="E8" t="n">
-        <v>23.43501826790625</v>
+        <v>23.47775285453798</v>
       </c>
       <c r="F8" t="n">
-        <v>23.17156215200406</v>
+        <v>23.21265906505167</v>
       </c>
       <c r="G8" t="n">
-        <v>17.0076077344835</v>
+        <v>18.54659464100454</v>
       </c>
       <c r="H8" t="n">
-        <v>21.16236955987747</v>
+        <v>21.17596760470006</v>
       </c>
       <c r="I8" t="n">
-        <v>20.08065753452528</v>
+        <v>20.08631822480402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.95685614272055</v>
+        <v>14.97449471337259</v>
       </c>
       <c r="C9" t="n">
-        <v>23.4922602983003</v>
+        <v>23.53123993638446</v>
       </c>
       <c r="D9" t="n">
-        <v>23.14897397129882</v>
+        <v>23.17156738676924</v>
       </c>
       <c r="E9" t="n">
-        <v>23.40734917486705</v>
+        <v>23.43501826790625</v>
       </c>
       <c r="F9" t="n">
-        <v>23.14897397129882</v>
+        <v>23.17156215200406</v>
       </c>
       <c r="G9" t="n">
-        <v>16.99181536467869</v>
+        <v>18.54298724646588</v>
       </c>
       <c r="H9" t="n">
-        <v>21.11077210605161</v>
+        <v>21.16236955987747</v>
       </c>
       <c r="I9" t="n">
-        <v>20.02693744204429</v>
+        <v>20.08065753452528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.97950404299135</v>
+        <v>14.95685614272055</v>
       </c>
       <c r="C10" t="n">
-        <v>23.52360458134433</v>
+        <v>23.4922602983003</v>
       </c>
       <c r="D10" t="n">
-        <v>23.15851575646126</v>
+        <v>23.14897397129882</v>
       </c>
       <c r="E10" t="n">
-        <v>23.42588160408351</v>
+        <v>23.40734917486705</v>
       </c>
       <c r="F10" t="n">
-        <v>23.15854675598964</v>
+        <v>23.14897397129882</v>
       </c>
       <c r="G10" t="n">
-        <v>17.01271862558486</v>
+        <v>18.52231602030115</v>
       </c>
       <c r="H10" t="n">
-        <v>21.15126370954349</v>
+        <v>21.11077210605161</v>
       </c>
       <c r="I10" t="n">
-        <v>20.06221080838128</v>
+        <v>20.02693744204429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.97950404299135</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.52360458134433</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.15851575646126</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.42588160408351</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23.15854675598964</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18.5445938674643</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.15126370954349</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.06221080838128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.96678275407911</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>23.48973690547193</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>23.12922420676529</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>23.4156495773656</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>23.12922420676529</v>
       </c>
-      <c r="G11" t="n">
-        <v>16.99982341881878</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>18.54104419347729</v>
+      </c>
+      <c r="H12" t="n">
         <v>21.1296588540973</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>20.05193320732568</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.97249473726117</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23.52313309224939</v>
-      </c>
-      <c r="D12" t="n">
-        <v>23.17645740365379</v>
-      </c>
-      <c r="E12" t="n">
-        <v>23.43697980577352</v>
-      </c>
-      <c r="F12" t="n">
-        <v>23.17646059058438</v>
-      </c>
-      <c r="G12" t="n">
-        <v>17.01003790472178</v>
-      </c>
-      <c r="H12" t="n">
-        <v>21.15324161164693</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20.07005487308154</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.550638354988221</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8.203962666392618</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.464485068512351</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8.203965853323213</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.037543167460607</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.180746874385759</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.097560135820371</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6587571240912411</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9234650610595593</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9180316066172201</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.922292187706668</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9180316066172201</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7800644863101776</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8743943238107403</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8485545575632623</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6595133855396499</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9228942197845685</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9189062726808555</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9231748713739591</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9189062726808555</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7821477783474364</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8752470287165184</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8505436728770861</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6592676215739396</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9227153036108416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9176521801689027</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9224870275043989</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9176521801689027</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7820862971289632</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8749612133599605</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8492036814827442</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6604556899089472</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9228635941313968</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9186310503849626</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9230570191379924</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9186310503849626</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7826026760510583</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8763035095543109</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8507791584826365</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6594507688515329</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9228187173736837</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.918541173770187</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.922483066694133</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.918541173770187</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.78183574529026</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8755892919179533</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8507291667448996</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6602931560028681</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9234432114315465</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9192618287464639</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.923421362212327</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9192624576612216</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.782284118936446</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8757934351767979</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.850383463693472</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.659641691863239</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9227207813745096</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9189689954266057</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.922822906985884</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9189687331141319</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7821188844004126</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8751484433159208</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8502934821343859</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6582856514761886</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9218879368637133</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9174525821631268</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9217225056667183</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9174525821631268</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.779906675720671</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8738437824003155</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8481531680800962</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6596731405665193</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9225219715668784</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9182989539494646</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9222399482400494</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9182994604318835</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7817562642303044</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8751300676591036</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8496221160968878</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6590780671786978</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9222077588000347</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9174895929819905</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9224321023245567</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9174895929819905</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7817213684356003</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8747387803828915</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8492918142788729</v>
       </c>
     </row>
   </sheetData>
